--- a/data/trans_orig/FREC_ALCOHOL-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/FREC_ALCOHOL-Estudios-trans_orig.xlsx
@@ -545,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de bebidas alcohólicas en País Vasco</t>
+          <t>Consumo de bebidas alcohólicas en País Vasco (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3060,7 +3060,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de bebidas alcohólicas en Andalucia</t>
+          <t>Consumo de bebidas alcohólicas en Andalucia (tasa de respuesta: 99,76%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -5575,7 +5575,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de bebidas alcohólicas en C.Valenciana</t>
+          <t>Consumo de bebidas alcohólicas en C.Valenciana (tasa de respuesta: 99,48%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/FREC_ALCOHOL-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/FREC_ALCOHOL-Estudios-trans_orig.xlsx
@@ -735,32 +735,32 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5543</t>
+          <t>12072</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3867</t>
+          <t>8646</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7631</t>
+          <t>17455</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>13,17%</t>
+          <t>16,54%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>9,19%</t>
+          <t>11,84%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>18,13%</t>
+          <t>23,91%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -770,32 +770,32 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>31632</t>
+          <t>51933</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>28152</t>
+          <t>44950</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>35100</t>
+          <t>59700</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>45,4%</t>
+          <t>44,64%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>40,4%</t>
+          <t>38,63%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>50,37%</t>
+          <t>51,31%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -805,22 +805,22 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>37175</t>
+          <t>64005</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>32774</t>
+          <t>55518</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>41797</t>
+          <t>72516</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>33,26%</t>
+          <t>33,8%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
@@ -830,7 +830,7 @@
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>37,39%</t>
+          <t>38,3%</t>
         </is>
       </c>
     </row>
@@ -848,32 +848,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>15417</t>
+          <t>26090</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>12819</t>
+          <t>21004</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>18638</t>
+          <t>31418</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>36,62%</t>
+          <t>35,74%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>30,45%</t>
+          <t>28,77%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>44,28%</t>
+          <t>43,04%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -883,32 +883,32 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>26181</t>
+          <t>48009</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>22574</t>
+          <t>40855</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>29726</t>
+          <t>55039</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>37,57%</t>
+          <t>41,26%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>32,4%</t>
+          <t>35,11%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>42,66%</t>
+          <t>47,31%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -918,32 +918,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>41598</t>
+          <t>74098</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>37328</t>
+          <t>65847</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>46456</t>
+          <t>82946</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>37,21%</t>
+          <t>39,13%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>33,39%</t>
+          <t>34,77%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>41,56%</t>
+          <t>43,8%</t>
         </is>
       </c>
     </row>
@@ -961,32 +961,32 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>8807</t>
+          <t>15851</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>6708</t>
+          <t>11702</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>11773</t>
+          <t>21227</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>20,92%</t>
+          <t>21,71%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>15,94%</t>
+          <t>16,03%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>27,97%</t>
+          <t>29,08%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -996,32 +996,32 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>6286</t>
+          <t>11433</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>4499</t>
+          <t>7784</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>8522</t>
+          <t>16953</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>9,02%</t>
+          <t>9,83%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>6,46%</t>
+          <t>6,69%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>12,23%</t>
+          <t>14,57%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -1031,32 +1031,32 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>15093</t>
+          <t>27285</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>11945</t>
+          <t>20935</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>18663</t>
+          <t>34492</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>13,5%</t>
+          <t>14,41%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>10,69%</t>
+          <t>11,06%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>16,7%</t>
+          <t>18,22%</t>
         </is>
       </c>
     </row>
@@ -1074,32 +1074,32 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>12329</t>
+          <t>18991</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>9881</t>
+          <t>14297</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>14974</t>
+          <t>24260</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>29,29%</t>
+          <t>26,01%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>23,47%</t>
+          <t>19,58%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>35,57%</t>
+          <t>33,23%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1109,32 +1109,32 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5583</t>
+          <t>4974</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3806</t>
+          <t>3093</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>8103</t>
+          <t>7849</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>8,01%</t>
+          <t>4,27%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>5,46%</t>
+          <t>2,66%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>11,63%</t>
+          <t>6,75%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1144,32 +1144,32 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>17912</t>
+          <t>23965</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>15068</t>
+          <t>18528</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>22023</t>
+          <t>30547</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>16,02%</t>
+          <t>12,66%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>13,48%</t>
+          <t>9,78%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>19,7%</t>
+          <t>16,13%</t>
         </is>
       </c>
     </row>
@@ -1187,17 +1187,17 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>42096</t>
+          <t>73004</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>42096</t>
+          <t>73004</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>42096</t>
+          <t>73004</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1222,17 +1222,17 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>69682</t>
+          <t>116349</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>69682</t>
+          <t>116349</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>69682</t>
+          <t>116349</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -1257,17 +1257,17 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>111778</t>
+          <t>189353</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>111778</t>
+          <t>189353</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>111778</t>
+          <t>189353</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -1304,32 +1304,32 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>17991</t>
+          <t>43609</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>14889</t>
+          <t>34643</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>21880</t>
+          <t>55032</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,88%</t>
+          <t>9,33%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,52%</t>
+          <t>7,42%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>9,58%</t>
+          <t>11,78%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1339,32 +1339,32 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>68294</t>
+          <t>122104</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>62660</t>
+          <t>108544</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>74719</t>
+          <t>134651</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>29,23%</t>
+          <t>27,07%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>26,82%</t>
+          <t>24,06%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>31,98%</t>
+          <t>29,85%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -1374,32 +1374,32 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>86285</t>
+          <t>165713</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>79869</t>
+          <t>149832</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>94434</t>
+          <t>181967</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>18,68%</t>
+          <t>18,05%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>17,29%</t>
+          <t>16,32%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>20,44%</t>
+          <t>19,82%</t>
         </is>
       </c>
     </row>
@@ -1417,32 +1417,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>92356</t>
+          <t>187667</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>85593</t>
+          <t>172664</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>98806</t>
+          <t>201646</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>40,44%</t>
+          <t>40,17%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>37,48%</t>
+          <t>36,96%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>43,26%</t>
+          <t>43,16%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1452,32 +1452,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>98266</t>
+          <t>203958</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>92484</t>
+          <t>189706</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>105689</t>
+          <t>219141</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>42,06%</t>
+          <t>45,21%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>39,59%</t>
+          <t>42,05%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>45,24%</t>
+          <t>48,58%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1487,32 +1487,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>190623</t>
+          <t>391625</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>181391</t>
+          <t>369902</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>199825</t>
+          <t>411813</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>41,26%</t>
+          <t>42,65%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>39,26%</t>
+          <t>40,28%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>43,25%</t>
+          <t>44,84%</t>
         </is>
       </c>
     </row>
@@ -1530,32 +1530,32 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>81918</t>
+          <t>171704</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>75690</t>
+          <t>156802</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>88652</t>
+          <t>186773</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>35,87%</t>
+          <t>36,75%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>33,14%</t>
+          <t>33,56%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>38,81%</t>
+          <t>39,98%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1565,32 +1565,32 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>53893</t>
+          <t>103823</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>47922</t>
+          <t>91796</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>59446</t>
+          <t>116219</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>23,07%</t>
+          <t>23,01%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>20,51%</t>
+          <t>20,35%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>25,45%</t>
+          <t>25,76%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1600,32 +1600,32 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>135811</t>
+          <t>275527</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>126835</t>
+          <t>256403</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>144738</t>
+          <t>295180</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>29,4%</t>
+          <t>30,0%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>27,45%</t>
+          <t>27,92%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>31,33%</t>
+          <t>32,14%</t>
         </is>
       </c>
     </row>
@@ -1643,32 +1643,32 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>36132</t>
+          <t>64218</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>31216</t>
+          <t>55091</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>41004</t>
+          <t>74512</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>15,82%</t>
+          <t>13,75%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>13,67%</t>
+          <t>11,79%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>17,95%</t>
+          <t>15,95%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1678,32 +1678,32 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>13168</t>
+          <t>21230</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>10219</t>
+          <t>15963</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>16677</t>
+          <t>26688</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>5,64%</t>
+          <t>4,71%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>4,37%</t>
+          <t>3,54%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>7,14%</t>
+          <t>5,92%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -1713,32 +1713,32 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>49300</t>
+          <t>85447</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>43873</t>
+          <t>75310</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>55711</t>
+          <t>98037</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>10,67%</t>
+          <t>9,3%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>9,5%</t>
+          <t>8,2%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>12,06%</t>
+          <t>10,68%</t>
         </is>
       </c>
     </row>
@@ -1756,17 +1756,17 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>228398</t>
+          <t>467198</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>228398</t>
+          <t>467198</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>228398</t>
+          <t>467198</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1791,17 +1791,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>233621</t>
+          <t>451114</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>233621</t>
+          <t>451114</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>233621</t>
+          <t>451114</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1826,17 +1826,17 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>462019</t>
+          <t>918312</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>462019</t>
+          <t>918312</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>462019</t>
+          <t>918312</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -1873,32 +1873,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>6480</t>
+          <t>16767</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>4606</t>
+          <t>11500</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>9105</t>
+          <t>24971</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>7,93%</t>
+          <t>8,14%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>5,64%</t>
+          <t>5,59%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>11,15%</t>
+          <t>12,13%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1908,32 +1908,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>13871</t>
+          <t>31169</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>11141</t>
+          <t>24741</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>17221</t>
+          <t>39774</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>12,85%</t>
+          <t>12,35%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>10,32%</t>
+          <t>9,8%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>15,95%</t>
+          <t>15,76%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1943,32 +1943,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>20352</t>
+          <t>47937</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>17148</t>
+          <t>39146</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>24409</t>
+          <t>59476</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>10,73%</t>
+          <t>10,46%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>9,04%</t>
+          <t>8,54%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>12,87%</t>
+          <t>12,98%</t>
         </is>
       </c>
     </row>
@@ -1986,32 +1986,32 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>32945</t>
+          <t>79562</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>29027</t>
+          <t>69993</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>37057</t>
+          <t>91522</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>40,33%</t>
+          <t>38,64%</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>35,53%</t>
+          <t>34,0%</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>45,36%</t>
+          <t>44,45%</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -2021,32 +2021,32 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>46336</t>
+          <t>108388</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>42082</t>
+          <t>97002</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>51166</t>
+          <t>119245</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>42,93%</t>
+          <t>42,95%</t>
         </is>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>38,99%</t>
+          <t>38,44%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>47,4%</t>
+          <t>47,25%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
@@ -2056,32 +2056,32 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>79280</t>
+          <t>187950</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>73338</t>
+          <t>170306</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>85264</t>
+          <t>203758</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
         <is>
-          <t>41,81%</t>
+          <t>41,02%</t>
         </is>
       </c>
       <c r="V15" s="2" t="inlineStr">
         <is>
-          <t>38,67%</t>
+          <t>37,17%</t>
         </is>
       </c>
       <c r="W15" s="2" t="inlineStr">
         <is>
-          <t>44,96%</t>
+          <t>44,47%</t>
         </is>
       </c>
     </row>
@@ -2099,32 +2099,32 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>31816</t>
+          <t>89053</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>28204</t>
+          <t>78102</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>35937</t>
+          <t>99418</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>38,95%</t>
+          <t>43,25%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>34,52%</t>
+          <t>37,94%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>43,99%</t>
+          <t>48,29%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2134,32 +2134,32 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>42196</t>
+          <t>101495</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>37557</t>
+          <t>90313</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>46533</t>
+          <t>113474</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>39,09%</t>
+          <t>40,22%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>34,79%</t>
+          <t>35,79%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>43,11%</t>
+          <t>44,97%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2169,32 +2169,32 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>74011</t>
+          <t>190548</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>68373</t>
+          <t>174856</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>80079</t>
+          <t>207595</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>39,03%</t>
+          <t>41,58%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>36,06%</t>
+          <t>38,16%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>42,23%</t>
+          <t>45,3%</t>
         </is>
       </c>
     </row>
@@ -2212,32 +2212,32 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>10451</t>
+          <t>20498</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>8200</t>
+          <t>15349</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>13551</t>
+          <t>27701</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>12,79%</t>
+          <t>9,96%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>10,04%</t>
+          <t>7,46%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>16,59%</t>
+          <t>13,45%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2247,32 +2247,32 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>5541</t>
+          <t>11302</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>3776</t>
+          <t>7277</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>7849</t>
+          <t>17099</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>5,13%</t>
+          <t>4,48%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>3,5%</t>
+          <t>2,88%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>7,27%</t>
+          <t>6,78%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2282,32 +2282,32 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>15992</t>
+          <t>31800</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>12956</t>
+          <t>24852</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>19773</t>
+          <t>39699</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>8,43%</t>
+          <t>6,94%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>6,83%</t>
+          <t>5,42%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>10,43%</t>
+          <t>8,66%</t>
         </is>
       </c>
     </row>
@@ -2325,17 +2325,17 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>81692</t>
+          <t>205880</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>81692</t>
+          <t>205880</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>81692</t>
+          <t>205880</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2360,17 +2360,17 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>107944</t>
+          <t>252354</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>107944</t>
+          <t>252354</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>107944</t>
+          <t>252354</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2395,17 +2395,17 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>189635</t>
+          <t>458234</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>189635</t>
+          <t>458234</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>189635</t>
+          <t>458234</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2442,32 +2442,32 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>30014</t>
+          <t>72448</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>25585</t>
+          <t>60934</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>34862</t>
+          <t>86751</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>8,52%</t>
+          <t>9,71%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>7,26%</t>
+          <t>8,17%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>9,9%</t>
+          <t>11,63%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -2477,32 +2477,32 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>113797</t>
+          <t>205207</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>106106</t>
+          <t>188804</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>122758</t>
+          <t>222005</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>27,67%</t>
+          <t>25,03%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>25,8%</t>
+          <t>23,03%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>29,85%</t>
+          <t>27,08%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -2512,32 +2512,32 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>143811</t>
+          <t>277655</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>134281</t>
+          <t>256269</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>154032</t>
+          <t>299056</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>18,84%</t>
+          <t>17,73%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>17,59%</t>
+          <t>16,37%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>20,18%</t>
+          <t>19,1%</t>
         </is>
       </c>
     </row>
@@ -2555,32 +2555,32 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>140718</t>
+          <t>293318</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>132940</t>
+          <t>274922</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>149336</t>
+          <t>314931</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>39,96%</t>
+          <t>39,31%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>37,75%</t>
+          <t>36,85%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>42,4%</t>
+          <t>42,21%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2590,32 +2590,32 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>170783</t>
+          <t>360355</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>162030</t>
+          <t>341100</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>179672</t>
+          <t>381469</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>41,53%</t>
+          <t>43,96%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>39,4%</t>
+          <t>41,61%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>43,69%</t>
+          <t>46,53%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2625,32 +2625,32 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>311500</t>
+          <t>653673</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>299604</t>
+          <t>626118</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>324235</t>
+          <t>681518</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>40,8%</t>
+          <t>41,74%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>39,24%</t>
+          <t>39,98%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>42,47%</t>
+          <t>43,52%</t>
         </is>
       </c>
     </row>
@@ -2668,32 +2668,32 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>122542</t>
+          <t>276608</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>114006</t>
+          <t>255746</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>129968</t>
+          <t>295751</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>34,79%</t>
+          <t>37,07%</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>32,37%</t>
+          <t>34,28%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>36,9%</t>
+          <t>39,64%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -2703,32 +2703,32 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>102374</t>
+          <t>216751</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>93897</t>
+          <t>199981</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>109728</t>
+          <t>237166</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>24,89%</t>
+          <t>26,44%</t>
         </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>22,83%</t>
+          <t>24,39%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>26,68%</t>
+          <t>28,93%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -2738,32 +2738,32 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>224915</t>
+          <t>493359</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>214253</t>
+          <t>468747</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>236476</t>
+          <t>521350</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>29,46%</t>
+          <t>31,51%</t>
         </is>
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>28,06%</t>
+          <t>29,93%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>30,98%</t>
+          <t>33,29%</t>
         </is>
       </c>
     </row>
@@ -2781,32 +2781,32 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>58912</t>
+          <t>103707</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>52511</t>
+          <t>91482</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>64971</t>
+          <t>116288</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>16,73%</t>
+          <t>13,9%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>14,91%</t>
+          <t>12,26%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>18,45%</t>
+          <t>15,59%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2816,32 +2816,32 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>24292</t>
+          <t>37506</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>20029</t>
+          <t>30286</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>28760</t>
+          <t>45669</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>5,91%</t>
+          <t>4,57%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>4,87%</t>
+          <t>3,69%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>6,99%</t>
+          <t>5,57%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2851,32 +2851,32 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>83205</t>
+          <t>141213</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>75918</t>
+          <t>125859</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>91071</t>
+          <t>155930</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>10,9%</t>
+          <t>9,02%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>9,94%</t>
+          <t>8,04%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>11,93%</t>
+          <t>9,96%</t>
         </is>
       </c>
     </row>
@@ -2894,17 +2894,17 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>352186</t>
+          <t>746081</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>352186</t>
+          <t>746081</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>352186</t>
+          <t>746081</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -2929,17 +2929,17 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>411246</t>
+          <t>819818</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>411246</t>
+          <t>819818</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>411246</t>
+          <t>819818</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -2964,17 +2964,17 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>763432</t>
+          <t>1565899</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>763432</t>
+          <t>1565899</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>763432</t>
+          <t>1565899</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -3255,12 +3255,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>24166</t>
+          <t>24379</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>43637</t>
+          <t>43944</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -3270,12 +3270,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>10,59%</t>
+          <t>10,68%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>19,12%</t>
+          <t>19,26%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -3290,12 +3290,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>143604</t>
+          <t>146413</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>175773</t>
+          <t>176579</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -3305,12 +3305,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>36,36%</t>
+          <t>37,07%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>44,5%</t>
+          <t>44,71%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -3325,12 +3325,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>172851</t>
+          <t>173545</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>211625</t>
+          <t>211888</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -3340,12 +3340,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>27,74%</t>
+          <t>27,85%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>33,96%</t>
+          <t>34,0%</t>
         </is>
       </c>
     </row>
@@ -3368,12 +3368,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>90307</t>
+          <t>90298</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>119183</t>
+          <t>119034</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -3388,7 +3388,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>52,23%</t>
+          <t>52,16%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -3403,12 +3403,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>189994</t>
+          <t>189022</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>222680</t>
+          <t>221759</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -3418,12 +3418,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>48,1%</t>
+          <t>47,86%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>56,38%</t>
+          <t>56,15%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -3438,12 +3438,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>289340</t>
+          <t>289557</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>331127</t>
+          <t>333284</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -3453,12 +3453,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>46,43%</t>
+          <t>46,47%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>53,14%</t>
+          <t>53,48%</t>
         </is>
       </c>
     </row>
@@ -3481,12 +3481,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>22111</t>
+          <t>22390</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>43723</t>
+          <t>43981</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -3496,12 +3496,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>9,69%</t>
+          <t>9,81%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>19,16%</t>
+          <t>19,27%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -3516,12 +3516,12 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>13700</t>
+          <t>13844</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>28631</t>
+          <t>27056</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -3531,12 +3531,12 @@
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>3,47%</t>
+          <t>3,51%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>7,25%</t>
+          <t>6,85%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -3551,12 +3551,12 @@
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>39704</t>
+          <t>40000</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>66119</t>
+          <t>65012</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -3566,12 +3566,12 @@
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>6,37%</t>
+          <t>6,42%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>10,61%</t>
+          <t>10,43%</t>
         </is>
       </c>
     </row>
@@ -3594,12 +3594,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>48597</t>
+          <t>48240</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>72012</t>
+          <t>73011</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -3609,12 +3609,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>21,3%</t>
+          <t>21,14%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>31,56%</t>
+          <t>31,99%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -3629,12 +3629,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>5375</t>
+          <t>5286</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>14604</t>
+          <t>14458</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -3644,12 +3644,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>1,36%</t>
+          <t>1,34%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>3,7%</t>
+          <t>3,66%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -3664,12 +3664,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>56970</t>
+          <t>56433</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>82987</t>
+          <t>83855</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -3679,12 +3679,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>9,14%</t>
+          <t>9,06%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>13,32%</t>
+          <t>13,46%</t>
         </is>
       </c>
     </row>
@@ -3824,12 +3824,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>105778</t>
+          <t>109315</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>235066</t>
+          <t>234691</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -3839,12 +3839,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,51%</t>
+          <t>7,76%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>16,69%</t>
+          <t>16,67%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -3859,12 +3859,12 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>209872</t>
+          <t>187308</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>388707</t>
+          <t>384370</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -3874,12 +3874,12 @@
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>15,17%</t>
+          <t>13,54%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>28,1%</t>
+          <t>27,79%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -3894,12 +3894,12 @@
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>354527</t>
+          <t>360102</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>594711</t>
+          <t>592218</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -3909,12 +3909,12 @@
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>12,7%</t>
+          <t>12,9%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>21,31%</t>
+          <t>21,22%</t>
         </is>
       </c>
     </row>
@@ -3937,12 +3937,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>640334</t>
+          <t>639822</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1049780</t>
+          <t>1051189</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -3952,12 +3952,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>45,48%</t>
+          <t>45,44%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>74,55%</t>
+          <t>74,65%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -3972,12 +3972,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>422970</t>
+          <t>372391</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>812901</t>
+          <t>817773</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -3987,12 +3987,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>30,58%</t>
+          <t>26,92%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>58,77%</t>
+          <t>59,12%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -4007,12 +4007,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>1169244</t>
+          <t>1162270</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>1756900</t>
+          <t>1752721</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -4022,12 +4022,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>41,89%</t>
+          <t>41,64%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>62,94%</t>
+          <t>62,79%</t>
         </is>
       </c>
     </row>
@@ -4050,12 +4050,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>171451</t>
+          <t>157844</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>367903</t>
+          <t>371993</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -4065,12 +4065,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>12,18%</t>
+          <t>11,21%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>26,13%</t>
+          <t>26,42%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -4085,12 +4085,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>175743</t>
+          <t>173286</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>711372</t>
+          <t>791723</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -4100,12 +4100,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>12,71%</t>
+          <t>12,53%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>51,43%</t>
+          <t>57,24%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -4120,12 +4120,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>452928</t>
+          <t>454556</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>1193699</t>
+          <t>1189397</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -4135,12 +4135,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>16,23%</t>
+          <t>16,29%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>42,77%</t>
+          <t>42,61%</t>
         </is>
       </c>
     </row>
@@ -4163,12 +4163,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>77268</t>
+          <t>82139</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>181470</t>
+          <t>179760</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -4178,12 +4178,12 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>5,49%</t>
+          <t>5,83%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>12,89%</t>
+          <t>12,77%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -4198,12 +4198,12 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>22039</t>
+          <t>22638</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>49858</t>
+          <t>51310</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -4213,12 +4213,12 @@
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>1,59%</t>
+          <t>1,64%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>3,6%</t>
+          <t>3,71%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -4233,12 +4233,12 @@
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>129716</t>
+          <t>127591</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>224430</t>
+          <t>218116</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -4248,12 +4248,12 @@
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>4,65%</t>
+          <t>4,57%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>8,04%</t>
+          <t>7,81%</t>
         </is>
       </c>
     </row>
@@ -4393,12 +4393,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>51001</t>
+          <t>51046</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>81519</t>
+          <t>81933</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -4408,12 +4408,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>11,09%</t>
+          <t>11,1%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>17,73%</t>
+          <t>17,82%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -4428,12 +4428,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>92539</t>
+          <t>93786</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>123840</t>
+          <t>123506</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -4443,12 +4443,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>20,91%</t>
+          <t>21,19%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>27,98%</t>
+          <t>27,91%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -4463,12 +4463,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>152888</t>
+          <t>153374</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>198466</t>
+          <t>196563</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -4478,12 +4478,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>16,94%</t>
+          <t>17,0%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>21,99%</t>
+          <t>21,78%</t>
         </is>
       </c>
     </row>
@@ -4506,12 +4506,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>160740</t>
+          <t>160579</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>206098</t>
+          <t>204996</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -4521,12 +4521,12 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>34,96%</t>
+          <t>34,92%</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>44,82%</t>
+          <t>44,58%</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -4541,12 +4541,12 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>188183</t>
+          <t>186363</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>225732</t>
+          <t>223220</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -4556,12 +4556,12 @@
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>42,52%</t>
+          <t>42,11%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>51,0%</t>
+          <t>50,44%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
@@ -4576,12 +4576,12 @@
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>359283</t>
+          <t>358309</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>418882</t>
+          <t>417626</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -4591,12 +4591,12 @@
       </c>
       <c r="V15" s="2" t="inlineStr">
         <is>
-          <t>39,81%</t>
+          <t>39,71%</t>
         </is>
       </c>
       <c r="W15" s="2" t="inlineStr">
         <is>
-          <t>46,42%</t>
+          <t>46,28%</t>
         </is>
       </c>
     </row>
@@ -4619,12 +4619,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>126344</t>
+          <t>124540</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>167424</t>
+          <t>170459</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -4634,12 +4634,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>27,48%</t>
+          <t>27,09%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>36,41%</t>
+          <t>37,07%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -4654,12 +4654,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>96802</t>
+          <t>97682</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>131391</t>
+          <t>130378</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -4669,12 +4669,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>21,87%</t>
+          <t>22,07%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>29,69%</t>
+          <t>29,46%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -4689,12 +4689,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>230322</t>
+          <t>233485</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>285187</t>
+          <t>287222</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -4704,12 +4704,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>25,52%</t>
+          <t>25,87%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>31,6%</t>
+          <t>31,83%</t>
         </is>
       </c>
     </row>
@@ -4732,12 +4732,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>51884</t>
+          <t>52036</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>79705</t>
+          <t>80004</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -4747,12 +4747,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>11,28%</t>
+          <t>11,32%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>17,33%</t>
+          <t>17,4%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -4767,12 +4767,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>10050</t>
+          <t>10301</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>22500</t>
+          <t>22607</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -4782,12 +4782,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>2,27%</t>
+          <t>2,33%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>5,08%</t>
+          <t>5,11%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -4802,12 +4802,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>67109</t>
+          <t>66999</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>97278</t>
+          <t>96971</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -4817,12 +4817,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>7,44%</t>
+          <t>7,42%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>10,78%</t>
+          <t>10,75%</t>
         </is>
       </c>
     </row>
@@ -4962,12 +4962,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>204638</t>
+          <t>178539</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>337849</t>
+          <t>333942</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -4977,12 +4977,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>9,76%</t>
+          <t>8,52%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>16,12%</t>
+          <t>15,93%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -4997,12 +4997,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>422449</t>
+          <t>429648</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>658240</t>
+          <t>653095</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -5012,12 +5012,12 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>19,02%</t>
+          <t>19,35%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>29,64%</t>
+          <t>29,41%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -5032,12 +5032,12 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>667398</t>
+          <t>701831</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>972045</t>
+          <t>981941</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -5047,12 +5047,12 @@
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>15,46%</t>
+          <t>16,26%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>22,52%</t>
+          <t>22,75%</t>
         </is>
       </c>
     </row>
@@ -5075,12 +5075,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>919701</t>
+          <t>916723</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>1374798</t>
+          <t>1418712</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -5090,12 +5090,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>43,88%</t>
+          <t>43,74%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>65,59%</t>
+          <t>67,68%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -5110,12 +5110,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>795128</t>
+          <t>801130</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>1227288</t>
+          <t>1223464</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -5125,12 +5125,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>35,81%</t>
+          <t>36,08%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>55,27%</t>
+          <t>55,09%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -5145,12 +5145,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>1867164</t>
+          <t>1850292</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>2555684</t>
+          <t>2495697</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -5160,12 +5160,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>43,25%</t>
+          <t>42,86%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>59,2%</t>
+          <t>57,81%</t>
         </is>
       </c>
     </row>
@@ -5188,12 +5188,12 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>316559</t>
+          <t>315814</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>554127</t>
+          <t>550917</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -5203,12 +5203,12 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>15,1%</t>
+          <t>15,07%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>26,44%</t>
+          <t>26,28%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -5223,12 +5223,12 @@
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>310898</t>
+          <t>311636</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>993967</t>
+          <t>950721</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -5238,12 +5238,12 @@
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>14,0%</t>
+          <t>14,03%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>44,76%</t>
+          <t>42,81%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -5258,12 +5258,12 @@
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>757972</t>
+          <t>758748</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>1584474</t>
+          <t>1502728</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -5273,12 +5273,12 @@
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>17,56%</t>
+          <t>17,58%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>36,7%</t>
+          <t>34,81%</t>
         </is>
       </c>
     </row>
@@ -5301,12 +5301,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>184686</t>
+          <t>178942</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>314638</t>
+          <t>316952</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -5316,12 +5316,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>8,81%</t>
+          <t>8,54%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>15,01%</t>
+          <t>15,12%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -5336,12 +5336,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>43242</t>
+          <t>42540</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>77432</t>
+          <t>75936</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -5351,12 +5351,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>1,95%</t>
+          <t>1,92%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>3,49%</t>
+          <t>3,42%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -5371,12 +5371,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>258312</t>
+          <t>264988</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>375493</t>
+          <t>378412</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -5386,12 +5386,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>5,98%</t>
+          <t>6,14%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>8,7%</t>
+          <t>8,77%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/FREC_ALCOHOL-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/FREC_ALCOHOL-Estudios-trans_orig.xlsx
@@ -7,9 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -545,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de bebidas alcohólicas en País Vasco (tasa de respuesta: 100,0%)</t>
+          <t>Consumo de bebidas alcohólicas en Andalucia (tasa de respuesta: 99,76%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -730,107 +730,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>51</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>12072</t>
+          <t>49631</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>8646</t>
+          <t>37329</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>17455</t>
+          <t>63014</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>16,54%</t>
+          <t>19,44%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>11,84%</t>
+          <t>14,62%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>23,91%</t>
+          <t>24,68%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>294</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>51933</t>
+          <t>179348</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>44950</t>
+          <t>162843</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>59700</t>
+          <t>196947</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>44,64%</t>
+          <t>41,47%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>38,63%</t>
+          <t>37,66%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>51,31%</t>
+          <t>45,54%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>345</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>64005</t>
+          <t>228978</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>55518</t>
+          <t>206737</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>72516</t>
+          <t>250424</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>33,8%</t>
+          <t>33,29%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>29,32%</t>
+          <t>30,06%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>38,3%</t>
+          <t>36,41%</t>
         </is>
       </c>
     </row>
@@ -843,107 +843,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>127</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>26090</t>
+          <t>109366</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>21004</t>
+          <t>95546</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>31418</t>
+          <t>125931</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>35,74%</t>
+          <t>42,84%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>28,77%</t>
+          <t>37,43%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>43,04%</t>
+          <t>49,33%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>352</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>48009</t>
+          <t>221032</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>40855</t>
+          <t>203912</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>55039</t>
+          <t>238216</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>41,26%</t>
+          <t>51,11%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>35,11%</t>
+          <t>47,15%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>47,31%</t>
+          <t>55,09%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>479</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>74098</t>
+          <t>330398</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>65847</t>
+          <t>308821</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>82946</t>
+          <t>354463</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>39,13%</t>
+          <t>48,04%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>34,77%</t>
+          <t>44,9%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>43,8%</t>
+          <t>51,54%</t>
         </is>
       </c>
     </row>
@@ -956,107 +956,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>35</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>15851</t>
+          <t>33324</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>11702</t>
+          <t>23876</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>21227</t>
+          <t>45733</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>21,71%</t>
+          <t>13,05%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>16,03%</t>
+          <t>9,35%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>29,08%</t>
+          <t>17,91%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>33</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>11433</t>
+          <t>21861</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>7784</t>
+          <t>15066</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>16953</t>
+          <t>29329</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>9,83%</t>
+          <t>5,06%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>6,69%</t>
+          <t>3,48%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>14,57%</t>
+          <t>6,78%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>68</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>27285</t>
+          <t>55185</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>20935</t>
+          <t>43627</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>34492</t>
+          <t>71049</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>14,41%</t>
+          <t>8,02%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>11,06%</t>
+          <t>6,34%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>18,22%</t>
+          <t>10,33%</t>
         </is>
       </c>
     </row>
@@ -1069,107 +1069,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>77</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>18991</t>
+          <t>62961</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>14297</t>
+          <t>50564</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>24260</t>
+          <t>76606</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>26,01%</t>
+          <t>24,66%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>19,58%</t>
+          <t>19,81%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>33,23%</t>
+          <t>30,01%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>16</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4974</t>
+          <t>10209</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3093</t>
+          <t>5976</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>7849</t>
+          <t>16973</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,27%</t>
+          <t>2,36%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>2,66%</t>
+          <t>1,38%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>6,75%</t>
+          <t>3,92%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>93</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>23965</t>
+          <t>73170</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>18528</t>
+          <t>59113</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>30547</t>
+          <t>88335</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>12,66%</t>
+          <t>10,64%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>9,78%</t>
+          <t>8,6%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>16,13%</t>
+          <t>12,84%</t>
         </is>
       </c>
     </row>
@@ -1182,22 +1182,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>290</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>73004</t>
+          <t>255282</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>73004</t>
+          <t>255282</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>73004</t>
+          <t>255282</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1217,22 +1217,22 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>415</t>
+          <t>695</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>116349</t>
+          <t>432449</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>116349</t>
+          <t>432449</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>116349</t>
+          <t>432449</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -1252,22 +1252,22 @@
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>652</t>
+          <t>985</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>189353</t>
+          <t>687731</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>189353</t>
+          <t>687731</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>189353</t>
+          <t>687731</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -1299,107 +1299,107 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>195</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>43609</t>
+          <t>223124</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>34643</t>
+          <t>192814</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>55032</t>
+          <t>256151</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>9,33%</t>
+          <t>17,35%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,42%</t>
+          <t>14,99%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>11,78%</t>
+          <t>19,91%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>396</t>
+          <t>497</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>122104</t>
+          <t>365336</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>108544</t>
+          <t>339060</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>134651</t>
+          <t>396676</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>27,07%</t>
+          <t>28,82%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>24,06%</t>
+          <t>26,74%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>29,85%</t>
+          <t>31,29%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>692</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>165713</t>
+          <t>588460</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>149832</t>
+          <t>546338</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>181967</t>
+          <t>638281</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>18,05%</t>
+          <t>23,04%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>16,32%</t>
+          <t>21,39%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>19,82%</t>
+          <t>24,99%</t>
         </is>
       </c>
     </row>
@@ -1412,107 +1412,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>489</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>187667</t>
+          <t>583630</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>172664</t>
+          <t>540159</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>201646</t>
+          <t>625314</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>40,17%</t>
+          <t>45,37%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>36,96%</t>
+          <t>41,99%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>43,16%</t>
+          <t>48,61%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>573</t>
+          <t>841</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>203958</t>
+          <t>673306</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>189706</t>
+          <t>640148</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>219141</t>
+          <t>707791</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>45,21%</t>
+          <t>53,11%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>42,05%</t>
+          <t>50,49%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>48,58%</t>
+          <t>55,83%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>1098</t>
+          <t>1330</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>391625</t>
+          <t>1256936</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>369902</t>
+          <t>1202239</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>411813</t>
+          <t>1312506</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>42,65%</t>
+          <t>49,21%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>40,28%</t>
+          <t>47,07%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>44,84%</t>
+          <t>51,39%</t>
         </is>
       </c>
     </row>
@@ -1525,107 +1525,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>497</t>
+          <t>255</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>171704</t>
+          <t>319564</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>156802</t>
+          <t>283407</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>186773</t>
+          <t>358953</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>36,75%</t>
+          <t>24,84%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>33,56%</t>
+          <t>22,03%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>39,98%</t>
+          <t>27,9%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>234</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>103823</t>
+          <t>185802</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>91796</t>
+          <t>163894</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>116219</t>
+          <t>210653</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>23,01%</t>
+          <t>14,66%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>20,35%</t>
+          <t>12,93%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>25,76%</t>
+          <t>16,62%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>815</t>
+          <t>489</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>275527</t>
+          <t>505366</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>256403</t>
+          <t>464216</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>295180</t>
+          <t>553420</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>30,0%</t>
+          <t>19,79%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>27,92%</t>
+          <t>18,17%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>32,14%</t>
+          <t>21,67%</t>
         </is>
       </c>
     </row>
@@ -1638,107 +1638,107 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>171</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>64218</t>
+          <t>160037</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>55091</t>
+          <t>136336</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>74512</t>
+          <t>183823</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>13,75%</t>
+          <t>12,44%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>11,79%</t>
+          <t>10,6%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>15,95%</t>
+          <t>14,29%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>63</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>21230</t>
+          <t>43368</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>15963</t>
+          <t>34160</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>26688</t>
+          <t>56792</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>4,71%</t>
+          <t>3,42%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>3,54%</t>
+          <t>2,69%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>5,92%</t>
+          <t>4,48%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>234</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>85447</t>
+          <t>203404</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>75310</t>
+          <t>178025</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>98037</t>
+          <t>228625</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>9,3%</t>
+          <t>7,96%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>8,2%</t>
+          <t>6,97%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>10,68%</t>
+          <t>8,95%</t>
         </is>
       </c>
     </row>
@@ -1751,22 +1751,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1353</t>
+          <t>1110</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>467198</t>
+          <t>1286355</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>467198</t>
+          <t>1286355</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>467198</t>
+          <t>1286355</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1786,22 +1786,22 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1362</t>
+          <t>1635</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>451114</t>
+          <t>1267811</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>451114</t>
+          <t>1267811</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>451114</t>
+          <t>1267811</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1821,22 +1821,22 @@
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>2715</t>
+          <t>2745</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>918312</t>
+          <t>2554166</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>918312</t>
+          <t>2554166</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>918312</t>
+          <t>2554166</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -1868,107 +1868,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>77</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>16767</t>
+          <t>74764</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>11500</t>
+          <t>59216</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>24971</t>
+          <t>93114</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>8,14%</t>
+          <t>14,66%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>5,59%</t>
+          <t>11,61%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>12,13%</t>
+          <t>18,26%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>185</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>31169</t>
+          <t>126780</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>24741</t>
+          <t>110728</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>39774</t>
+          <t>143303</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>12,35%</t>
+          <t>25,62%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>9,8%</t>
+          <t>22,37%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>15,76%</t>
+          <t>28,96%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>262</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>47937</t>
+          <t>201544</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>39146</t>
+          <t>179355</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>59476</t>
+          <t>226162</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>10,46%</t>
+          <t>20,06%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>8,54%</t>
+          <t>17,85%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>12,98%</t>
+          <t>22,51%</t>
         </is>
       </c>
     </row>
@@ -1981,107 +1981,107 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>184</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>79562</t>
+          <t>207408</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>69993</t>
+          <t>183133</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>91522</t>
+          <t>232736</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>38,64%</t>
+          <t>40,68%</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>34,0%</t>
+          <t>35,92%</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>44,45%</t>
+          <t>45,65%</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>293</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>108388</t>
+          <t>228733</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>97002</t>
+          <t>209157</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>119245</t>
+          <t>249056</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>42,95%</t>
+          <t>46,22%</t>
         </is>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>38,44%</t>
+          <t>42,26%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>47,25%</t>
+          <t>50,33%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>481</t>
+          <t>477</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>187950</t>
+          <t>436141</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>170306</t>
+          <t>404167</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>203758</t>
+          <t>467037</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
         <is>
-          <t>41,02%</t>
+          <t>43,41%</t>
         </is>
       </c>
       <c r="V15" s="2" t="inlineStr">
         <is>
-          <t>37,17%</t>
+          <t>40,23%</t>
         </is>
       </c>
       <c r="W15" s="2" t="inlineStr">
         <is>
-          <t>44,47%</t>
+          <t>46,48%</t>
         </is>
       </c>
     </row>
@@ -2094,107 +2094,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>142</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>89053</t>
+          <t>158153</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>78102</t>
+          <t>135500</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>99418</t>
+          <t>183797</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>43,25%</t>
+          <t>31,02%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>37,94%</t>
+          <t>26,58%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>48,29%</t>
+          <t>36,05%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>160</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>101495</t>
+          <t>121739</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>90313</t>
+          <t>104763</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>113474</t>
+          <t>138394</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>40,22%</t>
+          <t>24,6%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>35,79%</t>
+          <t>21,17%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>44,97%</t>
+          <t>27,97%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>459</t>
+          <t>302</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>190548</t>
+          <t>279892</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>174856</t>
+          <t>251382</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>207595</t>
+          <t>308499</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>41,58%</t>
+          <t>27,86%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>38,16%</t>
+          <t>25,02%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>45,3%</t>
+          <t>30,7%</t>
         </is>
       </c>
     </row>
@@ -2207,107 +2207,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>84</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>20498</t>
+          <t>69554</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>15349</t>
+          <t>55388</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>27701</t>
+          <t>84732</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>9,96%</t>
+          <t>13,64%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>7,46%</t>
+          <t>10,86%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>13,45%</t>
+          <t>16,62%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>27</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>11302</t>
+          <t>17624</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>7277</t>
+          <t>11714</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>17099</t>
+          <t>25498</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>4,48%</t>
+          <t>3,56%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>2,88%</t>
+          <t>2,37%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>6,78%</t>
+          <t>5,15%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>111</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>31800</t>
+          <t>87178</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>24852</t>
+          <t>72043</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>39699</t>
+          <t>103745</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>6,94%</t>
+          <t>8,68%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>5,42%</t>
+          <t>7,17%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>8,66%</t>
+          <t>10,33%</t>
         </is>
       </c>
     </row>
@@ -2320,22 +2320,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>499</t>
+          <t>487</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>205880</t>
+          <t>509879</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>205880</t>
+          <t>509879</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>205880</t>
+          <t>509879</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2355,22 +2355,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>666</t>
+          <t>665</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>252354</t>
+          <t>494876</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>252354</t>
+          <t>494876</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>252354</t>
+          <t>494876</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2390,22 +2390,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>1165</t>
+          <t>1152</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>458234</t>
+          <t>1004756</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>458234</t>
+          <t>1004756</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>458234</t>
+          <t>1004756</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2437,107 +2437,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>323</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>72448</t>
+          <t>347519</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>60934</t>
+          <t>314754</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>86751</t>
+          <t>390672</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>9,71%</t>
+          <t>16,94%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>8,17%</t>
+          <t>15,34%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>11,63%</t>
+          <t>19,04%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>670</t>
+          <t>976</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>205207</t>
+          <t>671464</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>188804</t>
+          <t>631800</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>222005</t>
+          <t>710823</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>25,03%</t>
+          <t>30,59%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>23,03%</t>
+          <t>28,78%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>27,08%</t>
+          <t>32,38%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>856</t>
+          <t>1299</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>277655</t>
+          <t>1018983</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>256269</t>
+          <t>968207</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>299056</t>
+          <t>1076451</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>17,73%</t>
+          <t>23,99%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>16,37%</t>
+          <t>22,8%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>19,1%</t>
+          <t>25,35%</t>
         </is>
       </c>
     </row>
@@ -2550,107 +2550,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>810</t>
+          <t>800</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>293318</t>
+          <t>900404</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>274922</t>
+          <t>848003</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>314931</t>
+          <t>951956</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>39,31%</t>
+          <t>43,89%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>36,85%</t>
+          <t>41,34%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>42,21%</t>
+          <t>46,4%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>1012</t>
+          <t>1486</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>360355</t>
+          <t>1123071</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>341100</t>
+          <t>1076671</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>381469</t>
+          <t>1169484</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>43,96%</t>
+          <t>51,16%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>41,61%</t>
+          <t>49,05%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>46,53%</t>
+          <t>53,28%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>1822</t>
+          <t>2286</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>653673</t>
+          <t>2023475</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>626118</t>
+          <t>1956925</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>681518</t>
+          <t>2092224</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>41,74%</t>
+          <t>47,65%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>39,98%</t>
+          <t>46,08%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>43,52%</t>
+          <t>49,27%</t>
         </is>
       </c>
     </row>
@@ -2663,107 +2663,107 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>742</t>
+          <t>432</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>276608</t>
+          <t>511041</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>255746</t>
+          <t>465892</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>295751</t>
+          <t>558489</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>37,07%</t>
+          <t>24,91%</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>34,28%</t>
+          <t>22,71%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>39,64%</t>
+          <t>27,22%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>619</t>
+          <t>427</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>216751</t>
+          <t>329401</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>199981</t>
+          <t>298665</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>237166</t>
+          <t>360853</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>26,44%</t>
+          <t>15,01%</t>
         </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>24,39%</t>
+          <t>13,61%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>28,93%</t>
+          <t>16,44%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>1361</t>
+          <t>859</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>493359</t>
+          <t>840442</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>468747</t>
+          <t>786630</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>521350</t>
+          <t>896274</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>31,51%</t>
+          <t>19,79%</t>
         </is>
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>29,93%</t>
+          <t>18,52%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>33,29%</t>
+          <t>21,11%</t>
         </is>
       </c>
     </row>
@@ -2776,107 +2776,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>332</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>103707</t>
+          <t>292552</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>91482</t>
+          <t>263225</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>116288</t>
+          <t>326990</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>13,9%</t>
+          <t>14,26%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>12,26%</t>
+          <t>12,83%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>15,59%</t>
+          <t>15,94%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>106</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>37506</t>
+          <t>71201</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>30286</t>
+          <t>58607</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>45669</t>
+          <t>87431</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>4,57%</t>
+          <t>3,24%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>3,69%</t>
+          <t>2,67%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>5,57%</t>
+          <t>3,98%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>493</t>
+          <t>438</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>141213</t>
+          <t>363752</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>125859</t>
+          <t>326762</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>155930</t>
+          <t>396778</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>9,02%</t>
+          <t>8,57%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>8,04%</t>
+          <t>7,69%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>9,96%</t>
+          <t>9,34%</t>
         </is>
       </c>
     </row>
@@ -2889,22 +2889,22 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>2089</t>
+          <t>1887</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>746081</t>
+          <t>2051516</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>746081</t>
+          <t>2051516</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>746081</t>
+          <t>2051516</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -2924,22 +2924,22 @@
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>2443</t>
+          <t>2995</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>819818</t>
+          <t>2195137</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>819818</t>
+          <t>2195137</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>819818</t>
+          <t>2195137</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -2959,22 +2959,22 @@
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>4532</t>
+          <t>4882</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>1565899</t>
+          <t>4246653</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>1565899</t>
+          <t>4246653</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>1565899</t>
+          <t>4246653</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -3060,7 +3060,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de bebidas alcohólicas en Andalucia (tasa de respuesta: 99,76%)</t>
+          <t>Consumo de bebidas alcohólicas en C.Valenciana (tasa de respuesta: 99,48%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3245,107 +3245,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>243</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>32966</t>
+          <t>92156</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>24379</t>
+          <t>82087</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>43944</t>
+          <t>102622</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>14,45%</t>
+          <t>42,96%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>10,68%</t>
+          <t>38,27%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>19,26%</t>
+          <t>47,84%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>480</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>160298</t>
+          <t>204743</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>146413</t>
+          <t>195469</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>176579</t>
+          <t>214814</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>40,59%</t>
+          <t>75,58%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>37,07%</t>
+          <t>72,16%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>44,71%</t>
+          <t>79,3%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>723</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>193263</t>
+          <t>296899</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>173545</t>
+          <t>282394</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>211888</t>
+          <t>312946</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>31,01%</t>
+          <t>61,17%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>27,85%</t>
+          <t>58,18%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>34,0%</t>
+          <t>64,47%</t>
         </is>
       </c>
     </row>
@@ -3358,107 +3358,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>123</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>103873</t>
+          <t>47264</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>90298</t>
+          <t>38849</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>119034</t>
+          <t>55896</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>45,52%</t>
+          <t>22,03%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>39,57%</t>
+          <t>18,11%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>52,16%</t>
+          <t>26,06%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>85</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>205696</t>
+          <t>35474</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>189022</t>
+          <t>28644</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>221759</t>
+          <t>44397</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>52,08%</t>
+          <t>13,1%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>47,86%</t>
+          <t>10,57%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>56,15%</t>
+          <t>16,39%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>479</t>
+          <t>208</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>309568</t>
+          <t>82738</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>289557</t>
+          <t>72070</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>333284</t>
+          <t>95265</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>49,68%</t>
+          <t>17,05%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>46,47%</t>
+          <t>14,85%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>53,48%</t>
+          <t>19,63%</t>
         </is>
       </c>
     </row>
@@ -3471,107 +3471,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>68</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>31153</t>
+          <t>30916</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>22390</t>
+          <t>24165</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>43981</t>
+          <t>39467</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>13,65%</t>
+          <t>14,41%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>9,81%</t>
+          <t>11,27%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>19,27%</t>
+          <t>18,4%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>51</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>19959</t>
+          <t>22344</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>13844</t>
+          <t>16112</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>27056</t>
+          <t>29387</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>5,05%</t>
+          <t>8,25%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>3,51%</t>
+          <t>5,95%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>6,85%</t>
+          <t>10,85%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>119</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>51111</t>
+          <t>53260</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>40000</t>
+          <t>43394</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>65012</t>
+          <t>63535</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>8,2%</t>
+          <t>10,97%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>6,42%</t>
+          <t>8,94%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>10,43%</t>
+          <t>13,09%</t>
         </is>
       </c>
     </row>
@@ -3584,107 +3584,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>117</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>60217</t>
+          <t>44176</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>48240</t>
+          <t>36542</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>73011</t>
+          <t>53747</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>26,39%</t>
+          <t>20,59%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>21,14%</t>
+          <t>17,04%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>31,99%</t>
+          <t>25,06%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>21</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>9005</t>
+          <t>8319</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>5286</t>
+          <t>5251</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>14458</t>
+          <t>13004</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,28%</t>
+          <t>3,07%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>1,34%</t>
+          <t>1,94%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>3,66%</t>
+          <t>4,8%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>138</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>69222</t>
+          <t>52495</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>56433</t>
+          <t>42550</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>83855</t>
+          <t>63770</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>11,11%</t>
+          <t>10,81%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>9,06%</t>
+          <t>8,77%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>13,46%</t>
+          <t>13,14%</t>
         </is>
       </c>
     </row>
@@ -3697,22 +3697,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>551</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>228208</t>
+          <t>214512</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>228208</t>
+          <t>214512</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>228208</t>
+          <t>214512</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -3732,22 +3732,22 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>695</t>
+          <t>637</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>394958</t>
+          <t>270880</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>394958</t>
+          <t>270880</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>394958</t>
+          <t>270880</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -3767,22 +3767,22 @@
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>985</t>
+          <t>1188</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>623165</t>
+          <t>485392</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>623165</t>
+          <t>485392</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>623165</t>
+          <t>485392</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -3814,107 +3814,107 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>476</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>185191</t>
+          <t>252557</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>109315</t>
+          <t>231792</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>234691</t>
+          <t>273831</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>13,15%</t>
+          <t>29,37%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,76%</t>
+          <t>26,96%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>16,67%</t>
+          <t>31,85%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>497</t>
+          <t>722</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>310071</t>
+          <t>398968</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>187308</t>
+          <t>373025</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>384370</t>
+          <t>422901</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>22,42%</t>
+          <t>46,17%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>13,54%</t>
+          <t>43,16%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>27,79%</t>
+          <t>48,94%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>692</t>
+          <t>1198</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>495262</t>
+          <t>651524</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>360102</t>
+          <t>619841</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>592218</t>
+          <t>684626</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>17,74%</t>
+          <t>37,79%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>12,9%</t>
+          <t>35,95%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>21,22%</t>
+          <t>39,71%</t>
         </is>
       </c>
     </row>
@@ -3927,107 +3927,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>489</t>
+          <t>413</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>785749</t>
+          <t>217188</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>639822</t>
+          <t>196419</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1051189</t>
+          <t>236764</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>55,8%</t>
+          <t>25,26%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>45,44%</t>
+          <t>22,84%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>74,65%</t>
+          <t>27,54%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>841</t>
+          <t>457</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>673142</t>
+          <t>269484</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>372391</t>
+          <t>248693</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>817773</t>
+          <t>294323</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>48,67%</t>
+          <t>31,18%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>26,92%</t>
+          <t>28,78%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>59,12%</t>
+          <t>34,06%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>1330</t>
+          <t>870</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>1458892</t>
+          <t>486672</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>1162270</t>
+          <t>457001</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>1752721</t>
+          <t>516623</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>52,27%</t>
+          <t>28,23%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>41,64%</t>
+          <t>26,51%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>62,79%</t>
+          <t>29,97%</t>
         </is>
       </c>
     </row>
@@ -4040,107 +4040,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>501</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>294528</t>
+          <t>275221</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>157844</t>
+          <t>253595</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>371993</t>
+          <t>296581</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>20,92%</t>
+          <t>32,01%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>11,21%</t>
+          <t>29,49%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>26,42%</t>
+          <t>34,49%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>301</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>363318</t>
+          <t>175599</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>173286</t>
+          <t>158258</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>791723</t>
+          <t>195962</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>26,27%</t>
+          <t>20,32%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>12,53%</t>
+          <t>18,31%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>57,24%</t>
+          <t>22,68%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>489</t>
+          <t>802</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>657846</t>
+          <t>450820</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>454556</t>
+          <t>421864</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>1189397</t>
+          <t>480152</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>23,57%</t>
+          <t>26,15%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>16,29%</t>
+          <t>24,47%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>42,61%</t>
+          <t>27,85%</t>
         </is>
       </c>
     </row>
@@ -4153,107 +4153,107 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>241</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>142604</t>
+          <t>114851</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>82139</t>
+          <t>100282</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>179760</t>
+          <t>130820</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>10,13%</t>
+          <t>13,36%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>5,83%</t>
+          <t>11,66%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>12,77%</t>
+          <t>15,21%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>39</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>36640</t>
+          <t>20158</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>22638</t>
+          <t>13924</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>51310</t>
+          <t>28665</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>2,65%</t>
+          <t>2,33%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>1,64%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>3,71%</t>
+          <t>3,32%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>280</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>179245</t>
+          <t>135009</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>127591</t>
+          <t>120624</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>218116</t>
+          <t>154189</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>6,42%</t>
+          <t>7,83%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>4,57%</t>
+          <t>7,0%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>7,81%</t>
+          <t>8,94%</t>
         </is>
       </c>
     </row>
@@ -4266,22 +4266,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1110</t>
+          <t>1631</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1408073</t>
+          <t>859817</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1408073</t>
+          <t>859817</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1408073</t>
+          <t>859817</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -4301,22 +4301,22 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1635</t>
+          <t>1519</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1383171</t>
+          <t>864209</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1383171</t>
+          <t>864209</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1383171</t>
+          <t>864209</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -4336,22 +4336,22 @@
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>2745</t>
+          <t>3150</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>2791244</t>
+          <t>1724026</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>2791244</t>
+          <t>1724026</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>2791244</t>
+          <t>1724026</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -4383,107 +4383,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>157</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>65685</t>
+          <t>85334</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>51046</t>
+          <t>72927</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>81933</t>
+          <t>98696</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>14,29%</t>
+          <t>22,54%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>11,1%</t>
+          <t>19,26%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>17,82%</t>
+          <t>26,07%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>248</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>107927</t>
+          <t>143984</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>93786</t>
+          <t>128823</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>123506</t>
+          <t>159473</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>24,39%</t>
+          <t>34,63%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>21,19%</t>
+          <t>30,99%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>27,91%</t>
+          <t>38,36%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>405</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>173612</t>
+          <t>229318</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>153374</t>
+          <t>209442</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>196563</t>
+          <t>249710</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>19,24%</t>
+          <t>28,87%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>17,0%</t>
+          <t>26,37%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>21,78%</t>
+          <t>31,44%</t>
         </is>
       </c>
     </row>
@@ -4496,107 +4496,107 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>155</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>183608</t>
+          <t>91871</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>160579</t>
+          <t>79039</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>204996</t>
+          <t>107175</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>39,93%</t>
+          <t>24,27%</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>34,92%</t>
+          <t>20,88%</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>44,58%</t>
+          <t>28,31%</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>213</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>204750</t>
+          <t>130256</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>186363</t>
+          <t>115264</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>223220</t>
+          <t>144802</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>46,26%</t>
+          <t>31,33%</t>
         </is>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>42,11%</t>
+          <t>27,72%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>50,44%</t>
+          <t>34,83%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>477</t>
+          <t>368</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>388357</t>
+          <t>222127</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>358309</t>
+          <t>201976</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>417626</t>
+          <t>244295</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
         <is>
-          <t>43,04%</t>
+          <t>27,96%</t>
         </is>
       </c>
       <c r="V15" s="2" t="inlineStr">
         <is>
-          <t>39,71%</t>
+          <t>25,43%</t>
         </is>
       </c>
       <c r="W15" s="2" t="inlineStr">
         <is>
-          <t>46,28%</t>
+          <t>30,75%</t>
         </is>
       </c>
     </row>
@@ -4609,107 +4609,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>279</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>145339</t>
+          <t>169170</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>124540</t>
+          <t>153367</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>170459</t>
+          <t>186166</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>31,61%</t>
+          <t>44,68%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>27,09%</t>
+          <t>40,51%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>37,07%</t>
+          <t>49,17%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>214</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>114107</t>
+          <t>129262</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>97682</t>
+          <t>114536</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>130378</t>
+          <t>144659</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>25,78%</t>
+          <t>31,09%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>22,07%</t>
+          <t>27,55%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>29,46%</t>
+          <t>34,79%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>493</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>259446</t>
+          <t>298432</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>233485</t>
+          <t>273229</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>287222</t>
+          <t>318960</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>28,75%</t>
+          <t>37,57%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>25,87%</t>
+          <t>34,4%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>31,83%</t>
+          <t>40,15%</t>
         </is>
       </c>
     </row>
@@ -4722,107 +4722,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>65</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>65170</t>
+          <t>32212</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>52036</t>
+          <t>25260</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>80004</t>
+          <t>41335</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>14,17%</t>
+          <t>8,51%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>11,32%</t>
+          <t>6,67%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>17,4%</t>
+          <t>10,92%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>24</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>15803</t>
+          <t>12254</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>10301</t>
+          <t>7887</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>22607</t>
+          <t>17910</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>3,57%</t>
+          <t>2,95%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>2,33%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>5,11%</t>
+          <t>4,31%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>89</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>80973</t>
+          <t>44466</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>66999</t>
+          <t>35245</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>96971</t>
+          <t>54706</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>8,97%</t>
+          <t>5,6%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>7,42%</t>
+          <t>4,44%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>10,75%</t>
+          <t>6,89%</t>
         </is>
       </c>
     </row>
@@ -4835,22 +4835,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>487</t>
+          <t>656</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>459801</t>
+          <t>378586</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>459801</t>
+          <t>378586</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>459801</t>
+          <t>378586</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -4870,22 +4870,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>665</t>
+          <t>699</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>442587</t>
+          <t>415756</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>442587</t>
+          <t>415756</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>442587</t>
+          <t>415756</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -4905,22 +4905,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>1152</t>
+          <t>1355</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>902388</t>
+          <t>794342</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>902388</t>
+          <t>794342</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>902388</t>
+          <t>794342</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -4952,107 +4952,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>323</t>
+          <t>876</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>283841</t>
+          <t>430046</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>178539</t>
+          <t>403435</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>333942</t>
+          <t>454862</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>13,54%</t>
+          <t>29,6%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>8,52%</t>
+          <t>27,77%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>15,93%</t>
+          <t>31,31%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>976</t>
+          <t>1450</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>578296</t>
+          <t>747695</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>429648</t>
+          <t>718779</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>653095</t>
+          <t>780094</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>26,04%</t>
+          <t>48,21%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>19,35%</t>
+          <t>46,35%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>29,41%</t>
+          <t>50,3%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>1299</t>
+          <t>2326</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>862137</t>
+          <t>1177741</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>701831</t>
+          <t>1133501</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>981941</t>
+          <t>1217217</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>19,97%</t>
+          <t>39,21%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>16,26%</t>
+          <t>37,74%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>22,75%</t>
+          <t>40,52%</t>
         </is>
       </c>
     </row>
@@ -5065,107 +5065,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>800</t>
+          <t>691</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>1073230</t>
+          <t>356323</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>916723</t>
+          <t>330388</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>1418712</t>
+          <t>379848</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>51,2%</t>
+          <t>24,52%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>43,74%</t>
+          <t>22,74%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>67,68%</t>
+          <t>26,14%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>1486</t>
+          <t>755</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>1083588</t>
+          <t>435214</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>801130</t>
+          <t>406550</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>1223464</t>
+          <t>463541</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>48,79%</t>
+          <t>28,06%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>36,08%</t>
+          <t>26,21%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>55,09%</t>
+          <t>29,89%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>2286</t>
+          <t>1446</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>2156817</t>
+          <t>791537</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>1850292</t>
+          <t>755255</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>2495697</t>
+          <t>833712</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>49,96%</t>
+          <t>26,35%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>42,86%</t>
+          <t>25,14%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>57,81%</t>
+          <t>27,76%</t>
         </is>
       </c>
     </row>
@@ -5178,107 +5178,107 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>432</t>
+          <t>848</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>471020</t>
+          <t>475306</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>315814</t>
+          <t>446740</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>550917</t>
+          <t>501324</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>22,47%</t>
+          <t>32,71%</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>15,07%</t>
+          <t>30,75%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>26,28%</t>
+          <t>34,5%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>427</t>
+          <t>566</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>497384</t>
+          <t>327206</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>311636</t>
+          <t>302797</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>950721</t>
+          <t>352695</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>22,4%</t>
+          <t>21,1%</t>
         </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>14,03%</t>
+          <t>19,52%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>42,81%</t>
+          <t>22,74%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>859</t>
+          <t>1414</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>968404</t>
+          <t>802512</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>758748</t>
+          <t>760801</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>1502728</t>
+          <t>842329</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>22,43%</t>
+          <t>26,72%</t>
         </is>
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>17,58%</t>
+          <t>25,33%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>34,81%</t>
+          <t>28,04%</t>
         </is>
       </c>
     </row>
@@ -5291,107 +5291,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>423</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>267991</t>
+          <t>191239</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>178942</t>
+          <t>171941</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>316952</t>
+          <t>213309</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>12,79%</t>
+          <t>13,16%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>8,54%</t>
+          <t>11,83%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>15,12%</t>
+          <t>14,68%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>84</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>61449</t>
+          <t>40730</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>42540</t>
+          <t>31958</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>75936</t>
+          <t>50418</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>2,77%</t>
+          <t>2,63%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>1,92%</t>
+          <t>2,06%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>3,42%</t>
+          <t>3,25%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>438</t>
+          <t>507</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>329440</t>
+          <t>231970</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>264988</t>
+          <t>211012</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>378412</t>
+          <t>252841</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>7,63%</t>
+          <t>7,72%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>6,14%</t>
+          <t>7,02%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>8,77%</t>
+          <t>8,42%</t>
         </is>
       </c>
     </row>
@@ -5404,22 +5404,22 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>1887</t>
+          <t>2838</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>2096082</t>
+          <t>1452914</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>2096082</t>
+          <t>1452914</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>2096082</t>
+          <t>1452914</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -5439,22 +5439,22 @@
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>2995</t>
+          <t>2855</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>2220716</t>
+          <t>1550845</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>2220716</t>
+          <t>1550845</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>2220716</t>
+          <t>1550845</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -5474,22 +5474,22 @@
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>4882</t>
+          <t>5693</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>4316797</t>
+          <t>3003760</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>4316797</t>
+          <t>3003760</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>4316797</t>
+          <t>3003760</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -5575,7 +5575,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de bebidas alcohólicas en C.Valenciana (tasa de respuesta: 99,48%)</t>
+          <t>Consumo de bebidas alcohólicas en País Vasco (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -5760,107 +5760,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>35</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>92156</t>
+          <t>12072</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>82087</t>
+          <t>8646</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>102622</t>
+          <t>17455</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>42,96%</t>
+          <t>16,54%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>38,27%</t>
+          <t>11,84%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>47,84%</t>
+          <t>23,91%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>480</t>
+          <t>186</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>204743</t>
+          <t>51933</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>195469</t>
+          <t>44950</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>214814</t>
+          <t>59700</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>75,58%</t>
+          <t>44,64%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>72,16%</t>
+          <t>38,63%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>79,3%</t>
+          <t>51,31%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>723</t>
+          <t>221</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>296899</t>
+          <t>64005</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>282394</t>
+          <t>55518</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>312946</t>
+          <t>72516</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>61,17%</t>
+          <t>33,8%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>58,18%</t>
+          <t>29,32%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>64,47%</t>
+          <t>38,3%</t>
         </is>
       </c>
     </row>
@@ -5873,107 +5873,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>85</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>47264</t>
+          <t>26090</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>38849</t>
+          <t>21004</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>55896</t>
+          <t>31418</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>22,03%</t>
+          <t>35,74%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>18,11%</t>
+          <t>28,77%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>26,06%</t>
+          <t>43,04%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>158</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>35474</t>
+          <t>48009</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>28644</t>
+          <t>40855</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>44397</t>
+          <t>55039</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>13,1%</t>
+          <t>41,26%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>10,57%</t>
+          <t>35,11%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>16,39%</t>
+          <t>47,31%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>243</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>82738</t>
+          <t>74098</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>72070</t>
+          <t>65847</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>95265</t>
+          <t>82946</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>17,05%</t>
+          <t>39,13%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>14,85%</t>
+          <t>34,77%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>19,63%</t>
+          <t>43,8%</t>
         </is>
       </c>
     </row>
@@ -5986,107 +5986,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>47</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>30916</t>
+          <t>15851</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>24165</t>
+          <t>11702</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>39467</t>
+          <t>21227</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>21,71%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>16,03%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>29,08%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>11433</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>7784</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>16953</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>9,83%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>6,69%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>14,57%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>27285</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>20935</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>34492</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
           <t>14,41%</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>11,27%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>18,4%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>22344</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>16112</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>29387</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>8,25%</t>
-        </is>
-      </c>
-      <c r="O6" s="2" t="inlineStr">
-        <is>
-          <t>5,95%</t>
-        </is>
-      </c>
-      <c r="P6" s="2" t="inlineStr">
-        <is>
-          <t>10,85%</t>
-        </is>
-      </c>
-      <c r="Q6" s="2" t="inlineStr">
-        <is>
-          <t>119</t>
-        </is>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>53260</t>
-        </is>
-      </c>
-      <c r="S6" s="2" t="inlineStr">
-        <is>
-          <t>43394</t>
-        </is>
-      </c>
-      <c r="T6" s="2" t="inlineStr">
-        <is>
-          <t>63535</t>
-        </is>
-      </c>
-      <c r="U6" s="2" t="inlineStr">
-        <is>
-          <t>10,97%</t>
-        </is>
-      </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>8,94%</t>
+          <t>11,06%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>13,09%</t>
+          <t>18,22%</t>
         </is>
       </c>
     </row>
@@ -6099,107 +6099,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>70</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>44176</t>
+          <t>18991</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>36542</t>
+          <t>14297</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>53747</t>
+          <t>24260</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>20,59%</t>
+          <t>26,01%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>17,04%</t>
+          <t>19,58%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>25,06%</t>
+          <t>33,23%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>31</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>8319</t>
+          <t>4974</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>5251</t>
+          <t>3093</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>13004</t>
+          <t>7849</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,07%</t>
+          <t>4,27%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>1,94%</t>
+          <t>2,66%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>4,8%</t>
+          <t>6,75%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>101</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>52495</t>
+          <t>23965</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>42550</t>
+          <t>18528</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>63770</t>
+          <t>30547</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>10,81%</t>
+          <t>12,66%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>8,77%</t>
+          <t>9,78%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>13,14%</t>
+          <t>16,13%</t>
         </is>
       </c>
     </row>
@@ -6212,22 +6212,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>551</t>
+          <t>237</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>214512</t>
+          <t>73004</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>214512</t>
+          <t>73004</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>214512</t>
+          <t>73004</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -6247,22 +6247,22 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>637</t>
+          <t>415</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>270880</t>
+          <t>116349</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>270880</t>
+          <t>116349</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>270880</t>
+          <t>116349</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -6282,22 +6282,22 @@
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>1188</t>
+          <t>652</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>485392</t>
+          <t>189353</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>485392</t>
+          <t>189353</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>485392</t>
+          <t>189353</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -6329,107 +6329,107 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>476</t>
+          <t>113</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>252557</t>
+          <t>43609</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>231792</t>
+          <t>34643</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>273831</t>
+          <t>55032</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>29,37%</t>
+          <t>9,33%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>26,96%</t>
+          <t>7,42%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>31,85%</t>
+          <t>11,78%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>722</t>
+          <t>396</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>398968</t>
+          <t>122104</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>373025</t>
+          <t>108544</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>422901</t>
+          <t>134651</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>46,17%</t>
+          <t>27,07%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>43,16%</t>
+          <t>24,06%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>48,94%</t>
+          <t>29,85%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>1198</t>
+          <t>509</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>651524</t>
+          <t>165713</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>619841</t>
+          <t>149832</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>684626</t>
+          <t>181967</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>37,79%</t>
+          <t>18,05%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>35,95%</t>
+          <t>16,32%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>39,71%</t>
+          <t>19,82%</t>
         </is>
       </c>
     </row>
@@ -6442,107 +6442,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>413</t>
+          <t>525</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>217188</t>
+          <t>187667</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>196419</t>
+          <t>172664</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>236764</t>
+          <t>201646</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>25,26%</t>
+          <t>40,17%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>22,84%</t>
+          <t>36,96%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>27,54%</t>
+          <t>43,16%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>457</t>
+          <t>573</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>269484</t>
+          <t>203958</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>248693</t>
+          <t>189706</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>294323</t>
+          <t>219141</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>31,18%</t>
+          <t>45,21%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>28,78%</t>
+          <t>42,05%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>34,06%</t>
+          <t>48,58%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>870</t>
+          <t>1098</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>486672</t>
+          <t>391625</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>457001</t>
+          <t>369902</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>516623</t>
+          <t>411813</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>28,23%</t>
+          <t>42,65%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>26,51%</t>
+          <t>40,28%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>29,97%</t>
+          <t>44,84%</t>
         </is>
       </c>
     </row>
@@ -6555,107 +6555,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>501</t>
+          <t>497</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>275221</t>
+          <t>171704</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>253595</t>
+          <t>156802</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>296581</t>
+          <t>186773</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>32,01%</t>
+          <t>36,75%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>29,49%</t>
+          <t>33,56%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>34,49%</t>
+          <t>39,98%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>318</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>175599</t>
+          <t>103823</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>158258</t>
+          <t>91796</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>195962</t>
+          <t>116219</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>20,32%</t>
+          <t>23,01%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>18,31%</t>
+          <t>20,35%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>22,68%</t>
+          <t>25,76%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>802</t>
+          <t>815</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>450820</t>
+          <t>275527</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>421864</t>
+          <t>256403</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>480152</t>
+          <t>295180</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>26,15%</t>
+          <t>30,0%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>24,47%</t>
+          <t>27,92%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>27,85%</t>
+          <t>32,14%</t>
         </is>
       </c>
     </row>
@@ -6668,107 +6668,107 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>218</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>114851</t>
+          <t>64218</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>100282</t>
+          <t>55091</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>130820</t>
+          <t>74512</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>13,36%</t>
+          <t>13,75%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>11,66%</t>
+          <t>11,79%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>15,21%</t>
+          <t>15,95%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>75</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>20158</t>
+          <t>21230</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>13924</t>
+          <t>15963</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>28665</t>
+          <t>26688</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>2,33%</t>
+          <t>4,71%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>1,61%</t>
+          <t>3,54%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>3,32%</t>
+          <t>5,92%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>293</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>135009</t>
+          <t>85447</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>120624</t>
+          <t>75310</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>154189</t>
+          <t>98037</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>7,83%</t>
+          <t>9,3%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>7,0%</t>
+          <t>8,2%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>8,94%</t>
+          <t>10,68%</t>
         </is>
       </c>
     </row>
@@ -6781,22 +6781,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1631</t>
+          <t>1353</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>859817</t>
+          <t>467198</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>859817</t>
+          <t>467198</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>859817</t>
+          <t>467198</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -6816,22 +6816,22 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1519</t>
+          <t>1362</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>864209</t>
+          <t>451114</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>864209</t>
+          <t>451114</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>864209</t>
+          <t>451114</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -6851,22 +6851,22 @@
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>3150</t>
+          <t>2715</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>1724026</t>
+          <t>918312</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>1724026</t>
+          <t>918312</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>1724026</t>
+          <t>918312</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -6898,107 +6898,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>85334</t>
+          <t>16767</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>72927</t>
+          <t>11500</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>98696</t>
+          <t>24971</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>22,54%</t>
+          <t>8,14%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>19,26%</t>
+          <t>5,59%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>26,07%</t>
+          <t>12,13%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>88</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>143984</t>
+          <t>31169</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>128823</t>
+          <t>24741</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>159473</t>
+          <t>39774</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>34,63%</t>
+          <t>12,35%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>30,99%</t>
+          <t>9,8%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>38,36%</t>
+          <t>15,76%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>126</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>229318</t>
+          <t>47937</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>209442</t>
+          <t>39146</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>249710</t>
+          <t>59476</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>28,87%</t>
+          <t>10,46%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>26,37%</t>
+          <t>8,54%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>31,44%</t>
+          <t>12,98%</t>
         </is>
       </c>
     </row>
@@ -7011,107 +7011,107 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>200</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>91871</t>
+          <t>79562</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>79039</t>
+          <t>69993</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>107175</t>
+          <t>91522</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>24,27%</t>
+          <t>38,64%</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>20,88%</t>
+          <t>34,0%</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>28,31%</t>
+          <t>44,45%</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>281</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>130256</t>
+          <t>108388</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>115264</t>
+          <t>97002</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>144802</t>
+          <t>119245</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>31,33%</t>
+          <t>42,95%</t>
         </is>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>27,72%</t>
+          <t>38,44%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>34,83%</t>
+          <t>47,25%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>481</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>222127</t>
+          <t>187950</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>201976</t>
+          <t>170306</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>244295</t>
+          <t>203758</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
         <is>
-          <t>27,96%</t>
+          <t>41,02%</t>
         </is>
       </c>
       <c r="V15" s="2" t="inlineStr">
         <is>
-          <t>25,43%</t>
+          <t>37,17%</t>
         </is>
       </c>
       <c r="W15" s="2" t="inlineStr">
         <is>
-          <t>30,75%</t>
+          <t>44,47%</t>
         </is>
       </c>
     </row>
@@ -7124,107 +7124,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>198</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>169170</t>
+          <t>89053</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>153367</t>
+          <t>78102</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>186166</t>
+          <t>99418</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>44,68%</t>
+          <t>43,25%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>40,51%</t>
+          <t>37,94%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>49,17%</t>
+          <t>48,29%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>261</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>129262</t>
+          <t>101495</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>114536</t>
+          <t>90313</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>144659</t>
+          <t>113474</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>31,09%</t>
+          <t>40,22%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>27,55%</t>
+          <t>35,79%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>34,79%</t>
+          <t>44,97%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>493</t>
+          <t>459</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>298432</t>
+          <t>190548</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>273229</t>
+          <t>174856</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>318960</t>
+          <t>207595</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>37,57%</t>
+          <t>41,58%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>34,4%</t>
+          <t>38,16%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>40,15%</t>
+          <t>45,3%</t>
         </is>
       </c>
     </row>
@@ -7237,107 +7237,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>63</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>32212</t>
+          <t>20498</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>25260</t>
+          <t>15349</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>41335</t>
+          <t>27701</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>8,51%</t>
+          <t>9,96%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>6,67%</t>
+          <t>7,46%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>10,92%</t>
+          <t>13,45%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>36</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>12254</t>
+          <t>11302</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>7887</t>
+          <t>7277</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>17910</t>
+          <t>17099</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>2,95%</t>
+          <t>4,48%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>1,9%</t>
+          <t>2,88%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>4,31%</t>
+          <t>6,78%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>99</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>44466</t>
+          <t>31800</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>35245</t>
+          <t>24852</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>54706</t>
+          <t>39699</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>5,6%</t>
+          <t>6,94%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>4,44%</t>
+          <t>5,42%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>6,89%</t>
+          <t>8,66%</t>
         </is>
       </c>
     </row>
@@ -7350,22 +7350,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>656</t>
+          <t>499</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>378586</t>
+          <t>205880</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>378586</t>
+          <t>205880</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>378586</t>
+          <t>205880</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -7385,22 +7385,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>699</t>
+          <t>666</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>415756</t>
+          <t>252354</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>415756</t>
+          <t>252354</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>415756</t>
+          <t>252354</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -7420,22 +7420,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>1355</t>
+          <t>1165</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>794342</t>
+          <t>458234</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>794342</t>
+          <t>458234</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>794342</t>
+          <t>458234</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -7467,107 +7467,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>876</t>
+          <t>186</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>430046</t>
+          <t>72448</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>403435</t>
+          <t>60934</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>454862</t>
+          <t>86751</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>29,6%</t>
+          <t>9,71%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>27,77%</t>
+          <t>8,17%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>31,31%</t>
+          <t>11,63%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>1450</t>
+          <t>670</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>747695</t>
+          <t>205207</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>718779</t>
+          <t>188804</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>780094</t>
+          <t>222005</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>48,21%</t>
+          <t>25,03%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>46,35%</t>
+          <t>23,03%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>50,3%</t>
+          <t>27,08%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>2326</t>
+          <t>856</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>1177741</t>
+          <t>277655</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>1133501</t>
+          <t>256269</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>1217217</t>
+          <t>299056</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>39,21%</t>
+          <t>17,73%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>37,74%</t>
+          <t>16,37%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>40,52%</t>
+          <t>19,1%</t>
         </is>
       </c>
     </row>
@@ -7580,107 +7580,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>691</t>
+          <t>810</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>356323</t>
+          <t>293318</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>330388</t>
+          <t>274922</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>379848</t>
+          <t>314931</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>24,52%</t>
+          <t>39,31%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>22,74%</t>
+          <t>36,85%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>26,14%</t>
+          <t>42,21%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>755</t>
+          <t>1012</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>435214</t>
+          <t>360355</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>406550</t>
+          <t>341100</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>463541</t>
+          <t>381469</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>28,06%</t>
+          <t>43,96%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>26,21%</t>
+          <t>41,61%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>29,89%</t>
+          <t>46,53%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>1446</t>
+          <t>1822</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>791537</t>
+          <t>653673</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>755255</t>
+          <t>626118</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>833712</t>
+          <t>681518</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>26,35%</t>
+          <t>41,74%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>25,14%</t>
+          <t>39,98%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>27,76%</t>
+          <t>43,52%</t>
         </is>
       </c>
     </row>
@@ -7693,107 +7693,107 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>848</t>
+          <t>742</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>475306</t>
+          <t>276608</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>446740</t>
+          <t>255746</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>501324</t>
+          <t>295751</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>32,71%</t>
+          <t>37,07%</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>30,75%</t>
+          <t>34,28%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>34,5%</t>
+          <t>39,64%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>566</t>
+          <t>619</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>327206</t>
+          <t>216751</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>302797</t>
+          <t>199981</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>352695</t>
+          <t>237166</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>21,1%</t>
+          <t>26,44%</t>
         </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>19,52%</t>
+          <t>24,39%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>22,74%</t>
+          <t>28,93%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>1414</t>
+          <t>1361</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>802512</t>
+          <t>493359</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>760801</t>
+          <t>468747</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>842329</t>
+          <t>521350</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>26,72%</t>
+          <t>31,51%</t>
         </is>
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>25,33%</t>
+          <t>29,93%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>28,04%</t>
+          <t>33,29%</t>
         </is>
       </c>
     </row>
@@ -7806,107 +7806,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>351</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>191239</t>
+          <t>103707</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>171941</t>
+          <t>91482</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>213309</t>
+          <t>116288</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>13,16%</t>
+          <t>13,9%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>11,83%</t>
+          <t>12,26%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>14,68%</t>
+          <t>15,59%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>142</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>40730</t>
+          <t>37506</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>31958</t>
+          <t>30286</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>50418</t>
+          <t>45669</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>2,63%</t>
+          <t>4,57%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>2,06%</t>
+          <t>3,69%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>3,25%</t>
+          <t>5,57%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>507</t>
+          <t>493</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>231970</t>
+          <t>141213</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>211012</t>
+          <t>125859</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>252841</t>
+          <t>155930</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>7,72%</t>
+          <t>9,02%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>7,02%</t>
+          <t>8,04%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>8,42%</t>
+          <t>9,96%</t>
         </is>
       </c>
     </row>
@@ -7919,22 +7919,22 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>2838</t>
+          <t>2089</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>1452914</t>
+          <t>746081</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>1452914</t>
+          <t>746081</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>1452914</t>
+          <t>746081</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -7954,22 +7954,22 @@
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>2855</t>
+          <t>2443</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>1550845</t>
+          <t>819818</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>1550845</t>
+          <t>819818</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>1550845</t>
+          <t>819818</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -7989,22 +7989,22 @@
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>5693</t>
+          <t>4532</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>3003760</t>
+          <t>1565899</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>3003760</t>
+          <t>1565899</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>3003760</t>
+          <t>1565899</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
